--- a/Biomass_Estimate.xlsx
+++ b/Biomass_Estimate.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/RceattleRuns/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant Adams\Documents\GitHub\RceattleRuns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E41AD5B-A39D-9041-9C54-DB3DA1D40FC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="460" windowWidth="21160" windowHeight="14380" activeTab="1" xr2:uid="{56F0221B-99D3-5943-A98A-121E995483AB}"/>
+    <workbookView xWindow="4440" yWindow="465" windowWidth="21165" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="Biomass" sheetId="1" r:id="rId1"/>
     <sheet name="SSB" sheetId="2" r:id="rId2"/>
     <sheet name="R" sheetId="3" r:id="rId3"/>
+    <sheet name="Selectivity" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
     <t>2018_Cod</t>
   </si>
@@ -55,12 +55,18 @@
   <si>
     <t>ssArrowtooth flounder</t>
   </si>
+  <si>
+    <t>SS-CEATTLE</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,8 +144,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 6" xfId="1" xr:uid="{FEC48C9C-EFE6-324F-A7C1-E548573F95BD}"/>
-    <cellStyle name="Normal_biom&amp;recr plots" xfId="2" xr:uid="{455DE5A1-A937-1045-997F-B9A2E427E301}"/>
+    <cellStyle name="Normal 6" xfId="1"/>
+    <cellStyle name="Normal_biom&amp;recr plots" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -168,6 +174,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pollock</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Biomass</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -488,7 +555,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ssPollock</c:v>
+                  <c:v>SS-CEATTLE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -649,130 +716,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>1313025.010994124</c:v>
+                  <c:v>1287217.1789248791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1520340.306414817</c:v>
+                  <c:v>1493440.720782042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2070315.961360371</c:v>
+                  <c:v>2034422.739526443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2228648.8668437172</c:v>
+                  <c:v>2193855.952312333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2336571.658495964</c:v>
+                  <c:v>2299076.1897971388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2216548.585902506</c:v>
+                  <c:v>2181798.5614849548</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1904228.0903910799</c:v>
+                  <c:v>1873482.7142710651</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1666366.152974657</c:v>
+                  <c:v>1625457.71649359</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1479849.3758364969</c:v>
+                  <c:v>1441769.5663893309</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1175013.7542935191</c:v>
+                  <c:v>1133133.605435665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1065719.7410273231</c:v>
+                  <c:v>1026738.873281575</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1040584.87059435</c:v>
+                  <c:v>1002792.209672628</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1170185.0826145171</c:v>
+                  <c:v>1126823.4423665509</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1269473.7200810469</c:v>
+                  <c:v>1226556.4691433699</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1246764.4143540859</c:v>
+                  <c:v>1207223.0488211559</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1162014.5538777951</c:v>
+                  <c:v>1125725.792366331</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1071237.1046024361</c:v>
+                  <c:v>1039643.944485562</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>885457.77675193176</c:v>
+                  <c:v>858425.74759703164</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>857064.49247889325</c:v>
+                  <c:v>833262.96638554276</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>732216.02882412483</c:v>
+                  <c:v>711644.77436147246</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>701634.03600497043</c:v>
+                  <c:v>684122.95252830023</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>644120.41337386519</c:v>
+                  <c:v>628538.23434059974</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>469789.92175615259</c:v>
+                  <c:v>457221.83500955597</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>486550.52994352422</c:v>
+                  <c:v>471989.43888688658</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>552293.80876787368</c:v>
+                  <c:v>536318.13157849084</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>618288.54997962597</c:v>
+                  <c:v>599251.26933432533</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>620379.5262801745</c:v>
+                  <c:v>602061.6762721549</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>501084.60617431579</c:v>
+                  <c:v>485764.96100749762</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>418350.09265310928</c:v>
+                  <c:v>404007.22118795238</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>419529.87086176331</c:v>
+                  <c:v>403517.46583695029</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>460224.38279390841</c:v>
+                  <c:v>442974.37757439137</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>657195.23852287955</c:v>
+                  <c:v>637468.38140054978</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>910989.5386685736</c:v>
+                  <c:v>894365.82815419743</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>901437.7134096222</c:v>
+                  <c:v>895524.97261984635</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>871673.26779947244</c:v>
+                  <c:v>875511.25762199133</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>875796.09104998398</c:v>
+                  <c:v>894456.56186495849</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1174812.076601916</c:v>
+                  <c:v>1170889.9685902069</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1762658.8755232629</c:v>
+                  <c:v>1727445.756019108</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1446429.95076722</c:v>
+                  <c:v>1404577.872163292</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1387718.46044353</c:v>
+                  <c:v>1291040.4304032139</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1130637.032636686</c:v>
+                  <c:v>946424.13037527911</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>933174.9321528807</c:v>
+                  <c:v>784782.24274177721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -913,6 +980,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -944,6 +1012,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -951,7 +1020,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1000,6 +1068,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cod Biomass</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1320,7 +1444,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ssCod</c:v>
+                  <c:v>SS-CEATTLE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1481,130 +1605,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>186453.3814105163</c:v>
+                  <c:v>186512.8989716513</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>242824.21724848379</c:v>
+                  <c:v>249430.0440524047</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>305453.15661658067</c:v>
+                  <c:v>319848.3883549606</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>348841.21557269018</c:v>
+                  <c:v>373676.92447227088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>372888.25558411569</c:v>
+                  <c:v>409372.12594374799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>396198.82034076401</c:v>
+                  <c:v>447779.34671136987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400562.17450979509</c:v>
+                  <c:v>465327.46985960117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>388106.42424256727</c:v>
+                  <c:v>459511.27960262587</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>407965.41038634471</c:v>
+                  <c:v>477784.04776420881</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>451623.83496036963</c:v>
+                  <c:v>516699.41553372901</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>458819.08720097062</c:v>
+                  <c:v>521145.64170630102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>516382.23430129047</c:v>
+                  <c:v>572786.1701097514</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>563433.25484008843</c:v>
+                  <c:v>613521.39592592255</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>588899.4680823934</c:v>
+                  <c:v>633256.7192945648</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>580328.75927265023</c:v>
+                  <c:v>620198.75950830639</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>568565.42467821669</c:v>
+                  <c:v>604068.77244394517</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>539562.20598350093</c:v>
+                  <c:v>570099.36601261445</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>521282.85207804362</c:v>
+                  <c:v>547341.05116798286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>503187.79790793342</c:v>
+                  <c:v>525817.00568851014</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>459187.55920516461</c:v>
+                  <c:v>480253.61861030932</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>417861.27368367091</c:v>
+                  <c:v>439898.92485268047</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>377053.49828987499</c:v>
+                  <c:v>401534.34774158208</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>347040.73553669301</c:v>
+                  <c:v>374072.87869018468</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>322703.92709343962</c:v>
+                  <c:v>351541.32641447149</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>324047.84092280478</c:v>
+                  <c:v>352699.50864433742</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>338253.69666958961</c:v>
+                  <c:v>364159.67351384892</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>339650.41636082542</c:v>
+                  <c:v>361197.76984534191</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>318668.23844252509</c:v>
+                  <c:v>335630.09380236431</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>294450.43032536638</c:v>
+                  <c:v>307695.75704377121</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>301461.72702699999</c:v>
+                  <c:v>312618.7063069244</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>335660.52991194848</c:v>
+                  <c:v>346877.59521377372</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>383234.81157601363</c:v>
+                  <c:v>396065.20187725552</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>421405.31187318719</c:v>
+                  <c:v>435874.21643797099</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>448228.40946666931</c:v>
+                  <c:v>463739.61289979331</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>430506.91476585879</c:v>
+                  <c:v>446216.98382877721</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>401438.02961354202</c:v>
+                  <c:v>417156.84521587071</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>382624.31444981048</c:v>
+                  <c:v>398231.10965900362</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>362472.88271456113</c:v>
+                  <c:v>377573.36507488228</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>304530.45946267212</c:v>
+                  <c:v>318591.4546169333</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>232138.83884731319</c:v>
+                  <c:v>245142.6919674922</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>165438.42555713089</c:v>
+                  <c:v>177451.56959840999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>123504.4509711788</c:v>
+                  <c:v>134292.82256497871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,6 +1869,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1776,6 +1901,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1783,7 +1909,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1832,6 +1957,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cod SSB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2152,7 +2333,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ssCod</c:v>
+                  <c:v>SS-CEATTLE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2313,130 +2494,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>54530.578782655648</c:v>
+                  <c:v>54865.653392388369</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55525.197860612127</c:v>
+                  <c:v>56748.256652423712</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50515.382106991063</c:v>
+                  <c:v>53076.596224895788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75209.077055290065</c:v>
+                  <c:v>83196.472053269041</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96075.855337866597</c:v>
+                  <c:v>106875.59378507519</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94914.273722521233</c:v>
+                  <c:v>110057.3803083388</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99958.23889391424</c:v>
+                  <c:v>118563.98017255421</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>116734.1293293888</c:v>
+                  <c:v>142648.2674267496</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112178.70377863001</c:v>
+                  <c:v>141187.64815839639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>111713.8205000415</c:v>
+                  <c:v>141062.9224395167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>117595.0858403489</c:v>
+                  <c:v>144985.0994188746</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>162509.82517005171</c:v>
+                  <c:v>187220.53137645239</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>192370.1248527921</c:v>
+                  <c:v>215006.17363417181</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>197492.28901391791</c:v>
+                  <c:v>216988.5596827062</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>195870.04145672041</c:v>
+                  <c:v>212865.41637448591</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>189871.78754751451</c:v>
+                  <c:v>204773.1577801728</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>182117.1682254714</c:v>
+                  <c:v>195892.41371547399</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>191090.0787530719</c:v>
+                  <c:v>203472.51827983651</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>188096.46936172241</c:v>
+                  <c:v>197999.12709708489</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>164795.85745734361</c:v>
+                  <c:v>172843.43113130811</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>147903.55168599659</c:v>
+                  <c:v>154956.0435534851</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>132423.44087130501</c:v>
+                  <c:v>139710.51776255091</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>120867.9951284057</c:v>
+                  <c:v>129554.86826015871</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>102697.8792000446</c:v>
+                  <c:v>113200.2034246527</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>93499.743614410938</c:v>
+                  <c:v>104856.99401212081</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>103303.774357873</c:v>
+                  <c:v>115263.1184491875</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>113522.1346043052</c:v>
+                  <c:v>124725.5140365204</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>113604.9647922577</c:v>
+                  <c:v>122590.8512238991</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>101247.06392026041</c:v>
+                  <c:v>107960.6150611621</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92046.461885591911</c:v>
+                  <c:v>96949.955245179037</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>84232.115082453616</c:v>
+                  <c:v>87858.584561673459</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>94633.828101587074</c:v>
+                  <c:v>98092.973537392856</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>114331.3952569945</c:v>
+                  <c:v>118646.4659928871</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>141168.78507965099</c:v>
+                  <c:v>147038.77721975229</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>140857.8149832956</c:v>
+                  <c:v>147229.12750945901</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>129859.2291083696</c:v>
+                  <c:v>135985.59331171651</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>117730.9121408026</c:v>
+                  <c:v>123547.3277951902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>113823.1296792987</c:v>
+                  <c:v>119808.34921065879</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>104673.0570824864</c:v>
+                  <c:v>110844.2157718052</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>90325.208125270903</c:v>
+                  <c:v>96071.700842928971</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>66762.149728585631</c:v>
+                  <c:v>71997.080919577536</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43156.533626638207</c:v>
+                  <c:v>47939.760988483024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2577,6 +2758,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2608,6 +2790,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2615,7 +2798,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2664,6 +2846,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pollock SSB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2984,7 +3222,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ssPollock</c:v>
+                  <c:v>SS-CEATTLE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3145,130 +3383,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>132578.0016208665</c:v>
+                  <c:v>128951.73092425631</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111347.0142087564</c:v>
+                  <c:v>107681.42661678141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109572.8600665273</c:v>
+                  <c:v>105820.34212907311</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>138966.86844503329</c:v>
+                  <c:v>134481.16449911011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137273.80970484301</c:v>
+                  <c:v>133223.89243351319</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>215712.0251039406</c:v>
+                  <c:v>210344.7111429362</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>281896.55705973489</c:v>
+                  <c:v>275605.18347429571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>291909.51741653518</c:v>
+                  <c:v>284828.36906324601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>230261.33272610389</c:v>
+                  <c:v>223178.25176136431</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>158204.85876464911</c:v>
+                  <c:v>151549.6954732055</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>137275.52831422031</c:v>
+                  <c:v>130488.87653869569</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>147734.43600195221</c:v>
+                  <c:v>140253.2811156984</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>172097.63837996029</c:v>
+                  <c:v>163955.14653806371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>181888.7929275739</c:v>
+                  <c:v>172983.17415149591</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>179666.1896929107</c:v>
+                  <c:v>170183.0749613735</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>171219.3642853038</c:v>
+                  <c:v>161722.37604503549</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>195825.44485226789</c:v>
+                  <c:v>185823.53439471009</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>236495.33678592771</c:v>
+                  <c:v>225757.9824771962</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>193460.4594200557</c:v>
+                  <c:v>184949.67974026481</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>182432.74804552659</c:v>
+                  <c:v>174915.73006399619</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>166161.12491848879</c:v>
+                  <c:v>159497.70483496709</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>128394.7111604118</c:v>
+                  <c:v>122973.8341715003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115780.6091427885</c:v>
+                  <c:v>110866.7431834993</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>105119.0479545566</c:v>
+                  <c:v>100574.4498107977</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>92281.388220760186</c:v>
+                  <c:v>87998.568033684511</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>68448.308221725456</c:v>
+                  <c:v>64708.600543733293</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>64017.791186265298</c:v>
+                  <c:v>60285.632008552813</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>85414.232929115286</c:v>
+                  <c:v>81515.209785456973</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>101748.31813996749</c:v>
+                  <c:v>97007.975801839828</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>103055.35953604461</c:v>
+                  <c:v>97586.838646747958</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>79697.024392540625</c:v>
+                  <c:v>74522.003188195435</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>74061.881271562073</c:v>
+                  <c:v>68655.114807821563</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>79541.013071045192</c:v>
+                  <c:v>74228.59400511907</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>137869.09865445239</c:v>
+                  <c:v>131554.37581177341</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>176563.40161028499</c:v>
+                  <c:v>170428.9220435688</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>191996.4034745344</c:v>
+                  <c:v>187909.68383206631</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>200724.48500472741</c:v>
+                  <c:v>199114.88575220469</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>156804.505530503</c:v>
+                  <c:v>158899.46696138469</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>127283.6206333943</c:v>
+                  <c:v>131735.40571266241</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>151264.2067490911</c:v>
+                  <c:v>148501.9541505001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>180292.658971447</c:v>
+                  <c:v>175530.6996565685</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>154211.47751048041</c:v>
+                  <c:v>143392.4500391664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3409,6 +3647,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3440,6 +3679,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3447,7 +3687,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3496,6 +3735,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pollock Recruitment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3816,7 +4111,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ssPollock</c:v>
+                  <c:v>SS-CEATTLE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3977,130 +4272,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>8438131.5563715268</c:v>
+                  <c:v>8264634.4175892826</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8680043.2581678946</c:v>
+                  <c:v>8607245.4551151115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15707500.07143826</c:v>
+                  <c:v>15486210.608311679</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8361037.9768659454</c:v>
+                  <c:v>8301318.9792368524</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4831810.1964993598</c:v>
+                  <c:v>4751936.4392310278</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4614514.7153575653</c:v>
+                  <c:v>4563179.8884436637</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2615541.8883630452</c:v>
+                  <c:v>2610408.996134216</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3402966.1692556371</c:v>
+                  <c:v>3164322.5674284939</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8739126.8545102216</c:v>
+                  <c:v>8575478.2323429193</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2940434.036091947</c:v>
+                  <c:v>2814088.9655121239</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1468675.643829423</c:v>
+                  <c:v>1394943.0364140819</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2840022.8891823851</c:v>
+                  <c:v>2814344.0509806559</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6930016.5696439659</c:v>
+                  <c:v>6667780.7967156004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5325032.1257511172</c:v>
+                  <c:v>5275942.7148092501</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2387952.6451979061</c:v>
+                  <c:v>2386467.8728585308</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1834119.4700396881</c:v>
+                  <c:v>1804291.1236255709</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1386036.6473213569</c:v>
+                  <c:v>1373729.1365656401</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1471501.20472299</c:v>
+                  <c:v>1450207.643036817</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4835345.6553675989</c:v>
+                  <c:v>4787955.1897670384</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2226842.485494094</c:v>
+                  <c:v>2181579.45000424</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>966061.42042407126</c:v>
+                  <c:v>956859.00490201556</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>913370.39025418926</c:v>
+                  <c:v>901701.17314539221</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1131061.7132145909</c:v>
+                  <c:v>1106013.227636382</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4055338.016698027</c:v>
+                  <c:v>3928870.5727781882</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4238232.9827992981</c:v>
+                  <c:v>4163492.533991205</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>676529.42926114646</c:v>
+                  <c:v>659186.67432622937</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>545590.4222898673</c:v>
+                  <c:v>535144.04798194172</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>488875.69541488989</c:v>
+                  <c:v>502367.32777109387</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1284408.1171194611</c:v>
+                  <c:v>1224539.229190557</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3722219.8254473931</c:v>
+                  <c:v>3645325.8527586949</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3457737.8020241451</c:v>
+                  <c:v>3394818.6191859851</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4402497.4750237158</c:v>
+                  <c:v>4392728.4314167378</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2051395.385351911</c:v>
+                  <c:v>2228270.6240971731</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1079937.0125701411</c:v>
+                  <c:v>1123738.9826920601</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3211341.8486809842</c:v>
+                  <c:v>3439547.8771141432</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>932109.60640895274</c:v>
+                  <c:v>1155691.892635223</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>22567265.473655201</c:v>
+                  <c:v>21002467.694011781</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1344233.162569582</c:v>
+                  <c:v>2147758.5868369159</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1263636.136067732</c:v>
+                  <c:v>233799.1493124612</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1091686.440666748</c:v>
+                  <c:v>83613.398497473696</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3324594.6086815158</c:v>
+                  <c:v>2180567.7110842438</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2443882.5593901421</c:v>
+                  <c:v>3900386.6928161848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4241,6 +4536,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4272,6 +4568,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4279,7 +4576,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4328,6 +4624,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cod Recruitment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -4648,7 +5000,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ssCod</c:v>
+                  <c:v>SS-CEATTLE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4809,130 +5161,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>430618.87427398091</c:v>
+                  <c:v>455700.08535297768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>462550.91546267131</c:v>
+                  <c:v>428845.60313019197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>231135.98595502751</c:v>
+                  <c:v>257732.21181304491</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>312290.89960005367</c:v>
+                  <c:v>310534.98613923963</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>567277.36867854244</c:v>
+                  <c:v>616449.67363862274</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160721.9794398071</c:v>
+                  <c:v>179270.1363201199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>290538.01338652271</c:v>
+                  <c:v>311058.92827192391</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>356802.60914317839</c:v>
+                  <c:v>352489.53874974308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>569251.52716959163</c:v>
+                  <c:v>544160.66482213186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>296392.50010125258</c:v>
+                  <c:v>306618.62038717978</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>181471.20750854001</c:v>
+                  <c:v>182187.27003779711</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>308256.20463479048</c:v>
+                  <c:v>317513.15237825131</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>229937.68541019119</c:v>
+                  <c:v>234806.2651325461</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>246888.8793943162</c:v>
+                  <c:v>258696.07947220761</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>291336.89848128031</c:v>
+                  <c:v>296345.25059833447</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>166837.7241966881</c:v>
+                  <c:v>164217.313668349</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>150103.65232874121</c:v>
+                  <c:v>154544.02520103179</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>192455.2862583063</c:v>
+                  <c:v>196516.10776158911</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157828.60831688749</c:v>
+                  <c:v>167751.57461626941</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>163922.9652251486</c:v>
+                  <c:v>177778.21586733661</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>127875.3343845476</c:v>
+                  <c:v>143866.62711009369</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>125702.5175607234</c:v>
+                  <c:v>133806.4102953939</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>209349.33571053151</c:v>
+                  <c:v>221764.37330805129</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>181074.8848901251</c:v>
+                  <c:v>184555.36053162179</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>172825.0626664671</c:v>
+                  <c:v>169400.04486064089</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>104469.22636868661</c:v>
+                  <c:v>102631.6644954019</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>122473.96901418849</c:v>
+                  <c:v>121897.8717547905</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>96942.146441951496</c:v>
+                  <c:v>96539.578938931882</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>237461.0612634538</c:v>
+                  <c:v>242349.53349413991</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>252534.79726279949</c:v>
+                  <c:v>260293.953205397</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>305853.19862125308</c:v>
+                  <c:v>317043.25595350342</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>205639.91382546519</c:v>
+                  <c:v>209491.06782232021</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>214647.22897945551</c:v>
+                  <c:v>217819.99888584111</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>163247.30558121749</c:v>
+                  <c:v>166822.83664082931</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>206389.06826187341</c:v>
+                  <c:v>212578.63358482241</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>209512.15564739559</c:v>
+                  <c:v>215454.1553023842</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>157246.94742541411</c:v>
+                  <c:v>158084.50940520331</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>61907.094443229696</c:v>
+                  <c:v>63801.287647354751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>33223.486490669689</c:v>
+                  <c:v>35213.390437946771</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34433.273035996273</c:v>
+                  <c:v>36926.889173103191</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>57572.416091640451</c:v>
+                  <c:v>57957.707514764334</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>128156.286030064</c:v>
+                  <c:v>128595.2294238563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5073,6 +5425,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5104,6 +5457,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5111,7 +5465,587 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Selectivity!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2018_Pollock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Selectivity!$A:$A</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Age</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Selectivity!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>11709500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14321100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25424800.000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12958600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7231480.0000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7229040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4967740</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5933450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14760199.999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4315400.0000000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1789469.9999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4998250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11468500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8451930</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3250630</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2362350.0000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1665970</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1701080</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6739470</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3154900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1454720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-606A-4CFF-9545-DA0F7C7733E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Selectivity!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ssPollock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Selectivity!$A:$A</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Age</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Selectivity!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8264634.4175892826</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8607245.4551151115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15486210.608311679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8301318.9792368524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4751936.4392310278</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4563179.8884436637</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2610408.996134216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3164322.5674284939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8575478.2323429193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2814088.9655121239</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1394943.0364140819</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2814344.0509806559</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6667780.7967156004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5275942.7148092501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2386467.8728585308</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1804291.1236255709</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1373729.1365656401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1450207.643036817</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4787955.1897670384</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2181579.45000424</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>956859.00490201556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-606A-4CFF-9545-DA0F7C7733E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="794956416"/>
+        <c:axId val="794868416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="794956416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="794868416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="794868416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="794956416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5386,6 +6320,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7967,6 +8941,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8646,6 +10136,87 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D53F291-5C71-BF47-AD4D-203CFCC4967E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351E7E7E-02D7-E54D-A98E-FBC82A550B3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -8677,44 +10248,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351E7E7E-02D7-E54D-A98E-FBC82A550B3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9019,16 +10552,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D28FB5A-2205-7040-9D6F-3CDF6ADA5BB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -9042,16 +10575,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1977</v>
       </c>
@@ -9063,16 +10596,16 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2">
-        <v>1313025.010994124</v>
+        <v>1287217.1789248791</v>
       </c>
       <c r="F2">
-        <v>186453.3814105163</v>
+        <v>186512.8989716513</v>
       </c>
       <c r="G2">
-        <v>283764.11994742241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>249746.37143041001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1978</v>
       </c>
@@ -9084,16 +10617,16 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3">
-        <v>1520340.306414817</v>
+        <v>1493440.720782042</v>
       </c>
       <c r="F3">
-        <v>242824.21724848379</v>
+        <v>249430.0440524047</v>
       </c>
       <c r="G3">
-        <v>280993.92785396363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>247699.87628908001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1979</v>
       </c>
@@ -9105,16 +10638,16 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4">
-        <v>2070315.961360371</v>
+        <v>2034422.739526443</v>
       </c>
       <c r="F4">
-        <v>305453.15661658067</v>
+        <v>319848.3883549606</v>
       </c>
       <c r="G4">
-        <v>286778.3216073839</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>253789.95248752669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1980</v>
       </c>
@@ -9126,16 +10659,16 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5">
-        <v>2228648.8668437172</v>
+        <v>2193855.952312333</v>
       </c>
       <c r="F5">
-        <v>348841.21557269018</v>
+        <v>373676.92447227088</v>
       </c>
       <c r="G5">
-        <v>294107.84950228041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>261136.40333032041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1981</v>
       </c>
@@ -9147,16 +10680,16 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6">
-        <v>2336571.658495964</v>
+        <v>2299076.1897971388</v>
       </c>
       <c r="F6">
-        <v>372888.25558411569</v>
+        <v>409372.12594374799</v>
       </c>
       <c r="G6">
-        <v>303730.64049284131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>270955.89396087622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1982</v>
       </c>
@@ -9168,16 +10701,16 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7">
-        <v>2216548.585902506</v>
+        <v>2181798.5614849548</v>
       </c>
       <c r="F7">
-        <v>396198.82034076401</v>
+        <v>447779.34671136987</v>
       </c>
       <c r="G7">
-        <v>308919.01024426077</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>276201.26509194548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1983</v>
       </c>
@@ -9189,16 +10722,16 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8">
-        <v>1904228.0903910799</v>
+        <v>1873482.7142710651</v>
       </c>
       <c r="F8">
-        <v>400562.17450979509</v>
+        <v>465327.46985960117</v>
       </c>
       <c r="G8">
-        <v>315063.2781691259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>282431.51649249491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1984</v>
       </c>
@@ -9210,16 +10743,16 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9">
-        <v>1666366.152974657</v>
+        <v>1625457.71649359</v>
       </c>
       <c r="F9">
-        <v>388106.42424256727</v>
+        <v>459511.27960262587</v>
       </c>
       <c r="G9">
-        <v>329645.9529360063</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>296903.86842046661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1985</v>
       </c>
@@ -9231,16 +10764,16 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10">
-        <v>1479849.3758364969</v>
+        <v>1441769.5663893309</v>
       </c>
       <c r="F10">
-        <v>407965.41038634471</v>
+        <v>477784.04776420881</v>
       </c>
       <c r="G10">
-        <v>352020.08540235693</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>318514.4918266465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1986</v>
       </c>
@@ -9252,16 +10785,16 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11">
-        <v>1175013.7542935191</v>
+        <v>1133133.605435665</v>
       </c>
       <c r="F11">
-        <v>451623.83496036963</v>
+        <v>516699.41553372901</v>
       </c>
       <c r="G11">
-        <v>372535.11444719991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>339097.25514013402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1987</v>
       </c>
@@ -9273,16 +10806,16 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12">
-        <v>1065719.7410273231</v>
+        <v>1026738.873281575</v>
       </c>
       <c r="F12">
-        <v>458819.08720097062</v>
+        <v>521145.64170630102</v>
       </c>
       <c r="G12">
-        <v>396766.79150942003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>363547.85802824772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1988</v>
       </c>
@@ -9294,16 +10827,16 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13">
-        <v>1040584.87059435</v>
+        <v>1002792.209672628</v>
       </c>
       <c r="F13">
-        <v>516382.23430129047</v>
+        <v>572786.1701097514</v>
       </c>
       <c r="G13">
-        <v>415091.23573900678</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>381738.14771567727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1989</v>
       </c>
@@ -9315,16 +10848,16 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14">
-        <v>1170185.0826145171</v>
+        <v>1126823.4423665509</v>
       </c>
       <c r="F14">
-        <v>563433.25484008843</v>
+        <v>613521.39592592255</v>
       </c>
       <c r="G14">
-        <v>435867.3130464502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>402911.5019394593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1990</v>
       </c>
@@ -9336,16 +10869,16 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15">
-        <v>1269473.7200810469</v>
+        <v>1226556.4691433699</v>
       </c>
       <c r="F15">
-        <v>588899.4680823934</v>
+        <v>633256.7192945648</v>
       </c>
       <c r="G15">
-        <v>455054.03380658751</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>422655.14849561651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1991</v>
       </c>
@@ -9357,16 +10890,16 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16">
-        <v>1246764.4143540859</v>
+        <v>1207223.0488211559</v>
       </c>
       <c r="F16">
-        <v>580328.75927265023</v>
+        <v>620198.75950830639</v>
       </c>
       <c r="G16">
-        <v>467168.09262025327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>434946.66116101813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1992</v>
       </c>
@@ -9378,16 +10911,16 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17">
-        <v>1162014.5538777951</v>
+        <v>1125725.792366331</v>
       </c>
       <c r="F17">
-        <v>568565.42467821669</v>
+        <v>604068.77244394517</v>
       </c>
       <c r="G17">
-        <v>477084.72294875007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>445612.91204863501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1993</v>
       </c>
@@ -9399,16 +10932,16 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18">
-        <v>1071237.1046024361</v>
+        <v>1039643.944485562</v>
       </c>
       <c r="F18">
-        <v>539562.20598350093</v>
+        <v>570099.36601261445</v>
       </c>
       <c r="G18">
-        <v>475321.07644031511</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>444593.76001864998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1994</v>
       </c>
@@ -9420,16 +10953,16 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19">
-        <v>885457.77675193176</v>
+        <v>858425.74759703164</v>
       </c>
       <c r="F19">
-        <v>521282.85207804362</v>
+        <v>547341.05116798286</v>
       </c>
       <c r="G19">
-        <v>469025.04633964098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>438885.02776056778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1995</v>
       </c>
@@ -9441,16 +10974,16 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20">
-        <v>857064.49247889325</v>
+        <v>833262.96638554276</v>
       </c>
       <c r="F20">
-        <v>503187.79790793342</v>
+        <v>525817.00568851014</v>
       </c>
       <c r="G20">
-        <v>455164.50930981239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>425619.54428180557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1996</v>
       </c>
@@ -9462,16 +10995,16 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21">
-        <v>732216.02882412483</v>
+        <v>711644.77436147246</v>
       </c>
       <c r="F21">
-        <v>459187.55920516461</v>
+        <v>480253.61861030932</v>
       </c>
       <c r="G21">
-        <v>447173.69033415569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>418290.39927206608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1997</v>
       </c>
@@ -9483,16 +11016,16 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22">
-        <v>701634.03600497043</v>
+        <v>684122.95252830023</v>
       </c>
       <c r="F22">
-        <v>417861.27368367091</v>
+        <v>439898.92485268047</v>
       </c>
       <c r="G22">
-        <v>435158.34124564612</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>406675.28815172642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1998</v>
       </c>
@@ -9504,16 +11037,16 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23">
-        <v>644120.41337386519</v>
+        <v>628538.23434059974</v>
       </c>
       <c r="F23">
-        <v>377053.49828987499</v>
+        <v>401534.34774158208</v>
       </c>
       <c r="G23">
-        <v>436498.5891335156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>408711.31473523768</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1999</v>
       </c>
@@ -9525,16 +11058,16 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24">
-        <v>469789.92175615259</v>
+        <v>457221.83500955597</v>
       </c>
       <c r="F24">
-        <v>347040.73553669301</v>
+        <v>374072.87869018468</v>
       </c>
       <c r="G24">
-        <v>438854.68455257022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>411512.67310203798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2000</v>
       </c>
@@ -9546,16 +11079,16 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25">
-        <v>486550.52994352422</v>
+        <v>471989.43888688658</v>
       </c>
       <c r="F25">
-        <v>322703.92709343962</v>
+        <v>351541.32641447149</v>
       </c>
       <c r="G25">
-        <v>463964.62946936022</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>437651.7735996925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2001</v>
       </c>
@@ -9567,16 +11100,16 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26">
-        <v>552293.80876787368</v>
+        <v>536318.13157849084</v>
       </c>
       <c r="F26">
-        <v>324047.84092280478</v>
+        <v>352699.50864433742</v>
       </c>
       <c r="G26">
-        <v>466417.54707518691</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>440565.45216553321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2002</v>
       </c>
@@ -9588,16 +11121,16 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27">
-        <v>618288.54997962597</v>
+        <v>599251.26933432533</v>
       </c>
       <c r="F27">
-        <v>338253.69666958961</v>
+        <v>364159.67351384892</v>
       </c>
       <c r="G27">
-        <v>478240.25367817708</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>453371.80687195732</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2003</v>
       </c>
@@ -9609,16 +11142,16 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28">
-        <v>620379.5262801745</v>
+        <v>602061.6762721549</v>
       </c>
       <c r="F28">
-        <v>339650.41636082542</v>
+        <v>361197.76984534191</v>
       </c>
       <c r="G28">
-        <v>482621.51419701491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>457969.95312108868</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2004</v>
       </c>
@@ -9630,16 +11163,16 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29">
-        <v>501084.60617431579</v>
+        <v>485764.96100749762</v>
       </c>
       <c r="F29">
-        <v>318668.23844252509</v>
+        <v>335630.09380236431</v>
       </c>
       <c r="G29">
-        <v>482337.0141920225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>458327.47617508529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2005</v>
       </c>
@@ -9651,16 +11184,16 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30">
-        <v>418350.09265310928</v>
+        <v>404007.22118795238</v>
       </c>
       <c r="F30">
-        <v>294450.43032536638</v>
+        <v>307695.75704377121</v>
       </c>
       <c r="G30">
-        <v>495576.63777989498</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>471126.7537750515</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2006</v>
       </c>
@@ -9672,16 +11205,16 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31">
-        <v>419529.87086176331</v>
+        <v>403517.46583695029</v>
       </c>
       <c r="F31">
-        <v>301461.72702699999</v>
+        <v>312618.7063069244</v>
       </c>
       <c r="G31">
-        <v>507411.54225213098</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>482614.62130941288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2007</v>
       </c>
@@ -9693,16 +11226,16 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32">
-        <v>460224.38279390841</v>
+        <v>442974.37757439137</v>
       </c>
       <c r="F32">
-        <v>335660.52991194848</v>
+        <v>346877.59521377372</v>
       </c>
       <c r="G32">
-        <v>499467.30616039771</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>473818.59487278928</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2008</v>
       </c>
@@ -9714,16 +11247,16 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33">
-        <v>657195.23852287955</v>
+        <v>637468.38140054978</v>
       </c>
       <c r="F33">
-        <v>383234.81157601363</v>
+        <v>396065.20187725552</v>
       </c>
       <c r="G33">
-        <v>496268.99122823251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>469485.83719380421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2009</v>
       </c>
@@ -9735,16 +11268,16 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34">
-        <v>910989.5386685736</v>
+        <v>894365.82815419743</v>
       </c>
       <c r="F34">
-        <v>421405.31187318719</v>
+        <v>435874.21643797099</v>
       </c>
       <c r="G34">
-        <v>478743.76165316039</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>450559.08454386418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2010</v>
       </c>
@@ -9756,16 +11289,16 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35">
-        <v>901437.7134096222</v>
+        <v>895524.97261984635</v>
       </c>
       <c r="F35">
-        <v>448228.40946666931</v>
+        <v>463739.61289979331</v>
       </c>
       <c r="G35">
-        <v>461492.21026285418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>432020.77196678089</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2011</v>
       </c>
@@ -9777,16 +11310,16 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36">
-        <v>871673.26779947244</v>
+        <v>875511.25762199133</v>
       </c>
       <c r="F36">
-        <v>430506.91476585879</v>
+        <v>446216.98382877721</v>
       </c>
       <c r="G36">
-        <v>448224.8768303406</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>416986.09682959178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2012</v>
       </c>
@@ -9798,16 +11331,16 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37">
-        <v>875796.09104998398</v>
+        <v>894456.56186495849</v>
       </c>
       <c r="F37">
-        <v>401438.02961354202</v>
+        <v>417156.84521587071</v>
       </c>
       <c r="G37">
-        <v>433833.73254916648</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>401200.59654567251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2013</v>
       </c>
@@ -9819,16 +11352,16 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38">
-        <v>1174812.076601916</v>
+        <v>1170889.9685902069</v>
       </c>
       <c r="F38">
-        <v>382624.31444981048</v>
+        <v>398231.10965900362</v>
       </c>
       <c r="G38">
-        <v>439396.90964067727</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>404684.43813561992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2014</v>
       </c>
@@ -9840,16 +11373,16 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39">
-        <v>1762658.8755232629</v>
+        <v>1727445.756019108</v>
       </c>
       <c r="F39">
-        <v>362472.88271456113</v>
+        <v>377573.36507488228</v>
       </c>
       <c r="G39">
-        <v>445369.25167392532</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>409465.91447992931</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2015</v>
       </c>
@@ -9861,16 +11394,16 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40">
-        <v>1446429.95076722</v>
+        <v>1404577.872163292</v>
       </c>
       <c r="F40">
-        <v>304530.45946267212</v>
+        <v>318591.4546169333</v>
       </c>
       <c r="G40">
-        <v>427074.07776593033</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>389749.2441322708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2016</v>
       </c>
@@ -9882,16 +11415,16 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41">
-        <v>1387718.46044353</v>
+        <v>1291040.4304032139</v>
       </c>
       <c r="F41">
-        <v>232138.83884731319</v>
+        <v>245142.6919674922</v>
       </c>
       <c r="G41">
-        <v>451808.59835934639</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>412244.27576665807</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2017</v>
       </c>
@@ -9903,16 +11436,16 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42">
-        <v>1130637.032636686</v>
+        <v>946424.13037527911</v>
       </c>
       <c r="F42">
-        <v>165438.42555713089</v>
+        <v>177451.56959840999</v>
       </c>
       <c r="G42">
-        <v>465955.6866037515</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>421595.96120232082</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2018</v>
       </c>
@@ -9924,13 +11457,13 @@
       </c>
       <c r="D43" s="1"/>
       <c r="E43">
-        <v>933174.9321528807</v>
+        <v>784782.24274177721</v>
       </c>
       <c r="F43">
-        <v>123504.4509711788</v>
+        <v>134292.82256497871</v>
       </c>
       <c r="G43">
-        <v>466487.27942375751</v>
+        <v>418550.05751943111</v>
       </c>
     </row>
   </sheetData>
@@ -9940,19 +11473,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888FF985-61AE-764B-ACB4-1C99CD95828C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -9966,16 +11499,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1977</v>
       </c>
@@ -9986,16 +11519,16 @@
         <v>174699</v>
       </c>
       <c r="E2">
-        <v>132578.0016208665</v>
+        <v>128951.73092425631</v>
       </c>
       <c r="F2">
-        <v>54530.578782655648</v>
+        <v>54865.653392388369</v>
       </c>
       <c r="G2">
-        <v>131490.42059072261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>110461.38033170591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1978</v>
       </c>
@@ -10006,16 +11539,16 @@
         <v>193930</v>
       </c>
       <c r="E3">
-        <v>111347.0142087564</v>
+        <v>107681.42661678141</v>
       </c>
       <c r="F3">
-        <v>55525.197860612127</v>
+        <v>56748.256652423712</v>
       </c>
       <c r="G3">
-        <v>138671.34402442849</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>117003.35677628381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1979</v>
       </c>
@@ -10026,16 +11559,16 @@
         <v>189064</v>
       </c>
       <c r="E4">
-        <v>109572.8600665273</v>
+        <v>105820.34212907311</v>
       </c>
       <c r="F4">
-        <v>50515.382106991063</v>
+        <v>53076.596224895788</v>
       </c>
       <c r="G4">
-        <v>142116.58732910009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>120088.3992236215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1980</v>
       </c>
@@ -10046,16 +11579,16 @@
         <v>184798</v>
       </c>
       <c r="E5">
-        <v>138966.86844503329</v>
+        <v>134481.16449911011</v>
       </c>
       <c r="F5">
-        <v>75209.077055290065</v>
+        <v>83196.472053269041</v>
       </c>
       <c r="G5">
-        <v>141955.01295035821</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>119753.53185720601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1981</v>
       </c>
@@ -10066,16 +11599,16 @@
         <v>211709</v>
       </c>
       <c r="E6">
-        <v>137273.80970484301</v>
+        <v>133223.89243351319</v>
       </c>
       <c r="F6">
-        <v>96075.855337866597</v>
+        <v>106875.59378507519</v>
       </c>
       <c r="G6">
-        <v>139598.22577864261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>117295.4507971805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1982</v>
       </c>
@@ -10086,16 +11619,16 @@
         <v>269205</v>
       </c>
       <c r="E7">
-        <v>215712.0251039406</v>
+        <v>210344.7111429362</v>
       </c>
       <c r="F7">
-        <v>94914.273722521233</v>
+        <v>110057.3803083388</v>
       </c>
       <c r="G7">
-        <v>137713.9412298284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>115470.7932493907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1983</v>
       </c>
@@ -10106,16 +11639,16 @@
         <v>284723</v>
       </c>
       <c r="E8">
-        <v>281896.55705973489</v>
+        <v>275605.18347429571</v>
       </c>
       <c r="F8">
-        <v>99958.23889391424</v>
+        <v>118563.98017255421</v>
       </c>
       <c r="G8">
-        <v>138831.80938693811</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>116856.24372113049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1984</v>
       </c>
@@ -10126,16 +11659,16 @@
         <v>287699</v>
       </c>
       <c r="E9">
-        <v>291909.51741653518</v>
+        <v>284828.36906324601</v>
       </c>
       <c r="F9">
-        <v>116734.1293293888</v>
+        <v>142648.2674267496</v>
       </c>
       <c r="G9">
-        <v>142365.9936312763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>120564.1864611061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1985</v>
       </c>
@@ -10146,16 +11679,16 @@
         <v>306016</v>
       </c>
       <c r="E10">
-        <v>230261.33272610389</v>
+        <v>223178.25176136431</v>
       </c>
       <c r="F10">
-        <v>112178.70377863001</v>
+        <v>141187.64815839639</v>
       </c>
       <c r="G10">
-        <v>151925.64246947339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>130341.29042968441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1986</v>
       </c>
@@ -10166,16 +11699,16 @@
         <v>334197</v>
       </c>
       <c r="E11">
-        <v>158204.85876464911</v>
+        <v>151549.6954732055</v>
       </c>
       <c r="F11">
-        <v>111713.8205000415</v>
+        <v>141062.9224395167</v>
       </c>
       <c r="G11">
-        <v>164281.00322835261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>142957.64957998041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1987</v>
       </c>
@@ -10186,16 +11719,16 @@
         <v>360488</v>
       </c>
       <c r="E12">
-        <v>137275.52831422031</v>
+        <v>130488.87653869569</v>
       </c>
       <c r="F12">
-        <v>117595.0858403489</v>
+        <v>144985.0994188746</v>
       </c>
       <c r="G12">
-        <v>174275.24726267601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>153293.8087794169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1988</v>
       </c>
@@ -10206,16 +11739,16 @@
         <v>388620</v>
       </c>
       <c r="E13">
-        <v>147734.43600195221</v>
+        <v>140253.2811156984</v>
       </c>
       <c r="F13">
-        <v>162509.82517005171</v>
+        <v>187220.53137645239</v>
       </c>
       <c r="G13">
-        <v>178666.4883081461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>157853.59362672019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1989</v>
       </c>
@@ -10226,16 +11759,16 @@
         <v>414853</v>
       </c>
       <c r="E14">
-        <v>172097.63837996029</v>
+        <v>163955.14653806371</v>
       </c>
       <c r="F14">
-        <v>192370.1248527921</v>
+        <v>215006.17363417181</v>
       </c>
       <c r="G14">
-        <v>183447.58862857241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>162702.69690511061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1990</v>
       </c>
@@ -10246,16 +11779,16 @@
         <v>417765</v>
       </c>
       <c r="E15">
-        <v>181888.7929275739</v>
+        <v>172983.17415149591</v>
       </c>
       <c r="F15">
-        <v>197492.28901391791</v>
+        <v>216988.5596827062</v>
       </c>
       <c r="G15">
-        <v>194753.37002007599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>173849.24888905449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1991</v>
       </c>
@@ -10266,16 +11799,16 @@
         <v>378709</v>
       </c>
       <c r="E16">
-        <v>179666.1896929107</v>
+        <v>170183.0749613735</v>
       </c>
       <c r="F16">
-        <v>195870.04145672041</v>
+        <v>212865.41637448591</v>
       </c>
       <c r="G16">
-        <v>207399.82306838871</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>185738.0976383868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1992</v>
       </c>
@@ -10286,16 +11819,16 @@
         <v>339428</v>
       </c>
       <c r="E17">
-        <v>171219.3642853038</v>
+        <v>161722.37604503549</v>
       </c>
       <c r="F17">
-        <v>189871.78754751451</v>
+        <v>204773.1577801728</v>
       </c>
       <c r="G17">
-        <v>215613.20368802239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>193254.79690666331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1993</v>
       </c>
@@ -10306,16 +11839,16 @@
         <v>306743</v>
       </c>
       <c r="E18">
-        <v>195825.44485226789</v>
+        <v>185823.53439471009</v>
       </c>
       <c r="F18">
-        <v>182117.1682254714</v>
+        <v>195892.41371547399</v>
       </c>
       <c r="G18">
-        <v>218348.09922057591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>195220.0073684846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1994</v>
       </c>
@@ -10326,16 +11859,16 @@
         <v>309815</v>
       </c>
       <c r="E19">
-        <v>236495.33678592771</v>
+        <v>225757.9824771962</v>
       </c>
       <c r="F19">
-        <v>191090.0787530719</v>
+        <v>203472.51827983651</v>
       </c>
       <c r="G19">
-        <v>219918.57990632029</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>195833.91587808789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1995</v>
       </c>
@@ -10346,16 +11879,16 @@
         <v>321640</v>
       </c>
       <c r="E20">
-        <v>193460.4594200557</v>
+        <v>184949.67974026481</v>
       </c>
       <c r="F20">
-        <v>188096.46936172241</v>
+        <v>197999.12709708489</v>
       </c>
       <c r="G20">
-        <v>217504.58271049589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>192172.07375191641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1996</v>
       </c>
@@ -10366,16 +11899,16 @@
         <v>288094</v>
       </c>
       <c r="E21">
-        <v>182432.74804552659</v>
+        <v>174915.73006399619</v>
       </c>
       <c r="F21">
-        <v>164795.85745734361</v>
+        <v>172843.43113130811</v>
       </c>
       <c r="G21">
-        <v>216600.06730664361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>190475.60728377471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1997</v>
       </c>
@@ -10386,16 +11919,16 @@
         <v>242585</v>
       </c>
       <c r="E22">
-        <v>166161.12491848879</v>
+        <v>159497.70483496709</v>
       </c>
       <c r="F22">
-        <v>147903.55168599659</v>
+        <v>154956.0435534851</v>
       </c>
       <c r="G22">
-        <v>213036.37886028871</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>186154.7029218167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1998</v>
       </c>
@@ -10406,16 +11939,16 @@
         <v>203454</v>
       </c>
       <c r="E23">
-        <v>128394.7111604118</v>
+        <v>122973.8341715003</v>
       </c>
       <c r="F23">
-        <v>132423.44087130501</v>
+        <v>139710.51776255091</v>
       </c>
       <c r="G23">
-        <v>213440.50246296171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>186452.1353962181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1999</v>
       </c>
@@ -10426,16 +11959,16 @@
         <v>179113</v>
       </c>
       <c r="E24">
-        <v>115780.6091427885</v>
+        <v>110866.7431834993</v>
       </c>
       <c r="F24">
-        <v>120867.9951284057</v>
+        <v>129554.86826015871</v>
       </c>
       <c r="G24">
-        <v>213176.37049748041</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>186496.8202223744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2000</v>
       </c>
@@ -10446,16 +11979,16 @@
         <v>160479</v>
       </c>
       <c r="E25">
-        <v>105119.0479545566</v>
+        <v>100574.4498107977</v>
       </c>
       <c r="F25">
-        <v>102697.8792000446</v>
+        <v>113200.2034246527</v>
       </c>
       <c r="G25">
-        <v>206143.58778824209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>179693.95455283971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2001</v>
       </c>
@@ -10466,16 +11999,16 @@
         <v>149981</v>
       </c>
       <c r="E26">
-        <v>92281.388220760186</v>
+        <v>87998.568033684511</v>
       </c>
       <c r="F26">
-        <v>93499.743614410938</v>
+        <v>104856.99401212081</v>
       </c>
       <c r="G26">
-        <v>195336.69905153589</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>168968.28700673699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2002</v>
       </c>
@@ -10486,16 +12019,16 @@
         <v>146157</v>
       </c>
       <c r="E27">
-        <v>68448.308221725456</v>
+        <v>64708.600543733293</v>
       </c>
       <c r="F27">
-        <v>103303.774357873</v>
+        <v>115263.1184491875</v>
       </c>
       <c r="G27">
-        <v>189492.981749914</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>163507.67991055091</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2003</v>
       </c>
@@ -10506,16 +12039,16 @@
         <v>150910</v>
       </c>
       <c r="E28">
-        <v>64017.791186265298</v>
+        <v>60285.632008552813</v>
       </c>
       <c r="F28">
-        <v>113522.1346043052</v>
+        <v>124725.5140365204</v>
       </c>
       <c r="G28">
-        <v>184307.69995938061</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>158415.86464825139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2004</v>
       </c>
@@ -10526,16 +12059,16 @@
         <v>157360</v>
       </c>
       <c r="E29">
-        <v>85414.232929115286</v>
+        <v>81515.209785456973</v>
       </c>
       <c r="F29">
-        <v>113604.9647922577</v>
+        <v>122590.8512238991</v>
       </c>
       <c r="G29">
-        <v>181349.0910372081</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>155254.3009977327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2005</v>
       </c>
@@ -10546,16 +12079,16 @@
         <v>153736</v>
       </c>
       <c r="E30">
-        <v>101748.31813996749</v>
+        <v>97007.975801839828</v>
       </c>
       <c r="F30">
-        <v>101247.06392026041</v>
+        <v>107960.6150611621</v>
       </c>
       <c r="G30">
-        <v>192136.50885444469</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>166304.7949826449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2006</v>
       </c>
@@ -10566,16 +12099,16 @@
         <v>138648</v>
       </c>
       <c r="E31">
-        <v>103055.35953604461</v>
+        <v>97586.838646747958</v>
       </c>
       <c r="F31">
-        <v>92046.461885591911</v>
+        <v>96949.955245179037</v>
       </c>
       <c r="G31">
-        <v>204718.756647567</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>178577.11709696619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2007</v>
       </c>
@@ -10586,16 +12119,16 @@
         <v>120645</v>
       </c>
       <c r="E32">
-        <v>79697.024392540625</v>
+        <v>74522.003188195435</v>
       </c>
       <c r="F32">
-        <v>84232.115082453616</v>
+        <v>87858.584561673459</v>
       </c>
       <c r="G32">
-        <v>210930.14165125301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>183670.9558415199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2008</v>
       </c>
@@ -10606,16 +12139,16 @@
         <v>107679</v>
       </c>
       <c r="E33">
-        <v>74061.881271562073</v>
+        <v>68655.114807821563</v>
       </c>
       <c r="F33">
-        <v>94633.828101587074</v>
+        <v>98092.973537392856</v>
       </c>
       <c r="G33">
-        <v>210744.15869394611</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>182341.97412396519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2009</v>
       </c>
@@ -10626,16 +12159,16 @@
         <v>110162</v>
       </c>
       <c r="E34">
-        <v>79541.013071045192</v>
+        <v>74228.59400511907</v>
       </c>
       <c r="F34">
-        <v>114331.3952569945</v>
+        <v>118646.4659928871</v>
       </c>
       <c r="G34">
-        <v>206693.86967820011</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>177015.4519052972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2010</v>
       </c>
@@ -10646,16 +12179,16 @@
         <v>141457</v>
       </c>
       <c r="E35">
-        <v>137869.09865445239</v>
+        <v>131554.37581177341</v>
       </c>
       <c r="F35">
-        <v>141168.78507965099</v>
+        <v>147038.77721975229</v>
       </c>
       <c r="G35">
-        <v>206769.3634511751</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>176202.26714099461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2011</v>
       </c>
@@ -10666,16 +12199,16 @@
         <v>162492</v>
       </c>
       <c r="E36">
-        <v>176563.40161028499</v>
+        <v>170428.9220435688</v>
       </c>
       <c r="F36">
-        <v>140857.8149832956</v>
+        <v>147229.12750945901</v>
       </c>
       <c r="G36">
-        <v>207806.0514138951</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>176137.66133080289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2012</v>
       </c>
@@ -10686,16 +12219,16 @@
         <v>170432</v>
       </c>
       <c r="E37">
-        <v>191996.4034745344</v>
+        <v>187909.68383206631</v>
       </c>
       <c r="F37">
-        <v>129859.2291083696</v>
+        <v>135985.59331171651</v>
       </c>
       <c r="G37">
-        <v>205733.78811891461</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>172712.48314056601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2013</v>
       </c>
@@ -10706,16 +12239,16 @@
         <v>172979</v>
       </c>
       <c r="E38">
-        <v>200724.48500472741</v>
+        <v>199114.88575220469</v>
       </c>
       <c r="F38">
-        <v>117730.9121408026</v>
+        <v>123547.3277951902</v>
       </c>
       <c r="G38">
-        <v>205558.8205257185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>171965.05361886401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2014</v>
       </c>
@@ -10726,16 +12259,16 @@
         <v>165104</v>
       </c>
       <c r="E39">
-        <v>156804.505530503</v>
+        <v>158899.46696138469</v>
       </c>
       <c r="F39">
-        <v>113823.1296792987</v>
+        <v>119808.34921065879</v>
       </c>
       <c r="G39">
-        <v>197236.2990162225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>162952.2052831843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2015</v>
       </c>
@@ -10746,16 +12279,16 @@
         <v>119173</v>
       </c>
       <c r="E40">
-        <v>127283.6206333943</v>
+        <v>131735.40571266241</v>
       </c>
       <c r="F40">
-        <v>104673.0570824864</v>
+        <v>110844.2157718052</v>
       </c>
       <c r="G40">
-        <v>180017.81651135281</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>144946.94356032141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2016</v>
       </c>
@@ -10766,16 +12299,16 @@
         <v>100203</v>
       </c>
       <c r="E41">
-        <v>151264.2067490911</v>
+        <v>148501.9541505001</v>
       </c>
       <c r="F41">
-        <v>90325.208125270903</v>
+        <v>96071.700842928971</v>
       </c>
       <c r="G41">
-        <v>172825.3354488035</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>137903.42695452221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2017</v>
       </c>
@@ -10786,16 +12319,16 @@
         <v>84676.2</v>
       </c>
       <c r="E42">
-        <v>180292.658971447</v>
+        <v>175530.6996565685</v>
       </c>
       <c r="F42">
-        <v>66762.149728585631</v>
+        <v>71997.080919577536</v>
       </c>
       <c r="G42">
-        <v>168472.03564618129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>133519.79486686279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2018</v>
       </c>
@@ -10806,13 +12339,13 @@
         <v>75781.899999999994</v>
       </c>
       <c r="E43">
-        <v>154211.47751048041</v>
+        <v>143392.4500391664</v>
       </c>
       <c r="F43">
-        <v>43156.533626638207</v>
+        <v>47939.760988483024</v>
       </c>
       <c r="G43">
-        <v>169222.46535577031</v>
+        <v>133880.93507670271</v>
       </c>
     </row>
   </sheetData>
@@ -10822,19 +12355,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821929F5-19A9-8141-AF93-BF465999D3E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -10848,6 +12381,888 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1977</v>
+      </c>
+      <c r="B2" s="2">
+        <v>11709500</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1669380</v>
+      </c>
+      <c r="E2">
+        <v>8264634.4175892826</v>
+      </c>
+      <c r="F2">
+        <v>455700.08535297768</v>
+      </c>
+      <c r="G2">
+        <v>153934.06856450791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1978</v>
+      </c>
+      <c r="B3" s="2">
+        <v>14321100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>432925</v>
+      </c>
+      <c r="E3">
+        <v>8607245.4551151115</v>
+      </c>
+      <c r="F3">
+        <v>428845.60313019197</v>
+      </c>
+      <c r="G3">
+        <v>158511.4981653695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1979</v>
+      </c>
+      <c r="B4" s="2">
+        <v>25424800.000000004</v>
+      </c>
+      <c r="C4" s="1">
+        <v>740541</v>
+      </c>
+      <c r="E4">
+        <v>15486210.608311679</v>
+      </c>
+      <c r="F4">
+        <v>257732.21181304491</v>
+      </c>
+      <c r="G4">
+        <v>285517.97527267551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12958600</v>
+      </c>
+      <c r="C5" s="1">
+        <v>805551</v>
+      </c>
+      <c r="E5">
+        <v>8301318.9792368524</v>
+      </c>
+      <c r="F5">
+        <v>310534.98613923963</v>
+      </c>
+      <c r="G5">
+        <v>207465.49440485481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1981</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7231480.0000000009</v>
+      </c>
+      <c r="C6" s="1">
+        <v>821497</v>
+      </c>
+      <c r="E6">
+        <v>4751936.4392310278</v>
+      </c>
+      <c r="F6">
+        <v>616449.67363862274</v>
+      </c>
+      <c r="G6">
+        <v>236969.1872002435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1982</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7229040</v>
+      </c>
+      <c r="C7" s="1">
+        <v>893635</v>
+      </c>
+      <c r="E7">
+        <v>4563179.8884436637</v>
+      </c>
+      <c r="F7">
+        <v>179270.1363201199</v>
+      </c>
+      <c r="G7">
+        <v>112183.8593146752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1983</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4967740</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1042800</v>
+      </c>
+      <c r="E8">
+        <v>2610408.996134216</v>
+      </c>
+      <c r="F8">
+        <v>311058.92827192391</v>
+      </c>
+      <c r="G8">
+        <v>136788.71159931831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1984</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5933450</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1133280</v>
+      </c>
+      <c r="E9">
+        <v>3164322.5674284939</v>
+      </c>
+      <c r="F9">
+        <v>352489.53874974308</v>
+      </c>
+      <c r="G9">
+        <v>377092.09298634459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1985</v>
+      </c>
+      <c r="B10" s="2">
+        <v>14760199.999999998</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1119070</v>
+      </c>
+      <c r="E10">
+        <v>8575478.2323429193</v>
+      </c>
+      <c r="F10">
+        <v>544160.66482213186</v>
+      </c>
+      <c r="G10">
+        <v>348013.08891793469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1986</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4315400.0000000009</v>
+      </c>
+      <c r="C11" s="1">
+        <v>794109</v>
+      </c>
+      <c r="E11">
+        <v>2814088.9655121239</v>
+      </c>
+      <c r="F11">
+        <v>306618.62038717978</v>
+      </c>
+      <c r="G11">
+        <v>216855.7508696845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1987</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1789469.9999999998</v>
+      </c>
+      <c r="C12" s="1">
+        <v>836643</v>
+      </c>
+      <c r="E12">
+        <v>1394943.0364140819</v>
+      </c>
+      <c r="F12">
+        <v>182187.27003779711</v>
+      </c>
+      <c r="G12">
+        <v>320001.83150626661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1988</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4998250</v>
+      </c>
+      <c r="C13" s="1">
+        <v>786067</v>
+      </c>
+      <c r="E13">
+        <v>2814344.0509806559</v>
+      </c>
+      <c r="F13">
+        <v>317513.15237825131</v>
+      </c>
+      <c r="G13">
+        <v>258279.4952063752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1989</v>
+      </c>
+      <c r="B14" s="2">
+        <v>11468500</v>
+      </c>
+      <c r="C14" s="1">
+        <v>823390</v>
+      </c>
+      <c r="E14">
+        <v>6667780.7967156004</v>
+      </c>
+      <c r="F14">
+        <v>234806.2651325461</v>
+      </c>
+      <c r="G14">
+        <v>346354.11115940922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B15" s="2">
+        <v>8451930</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1135740</v>
+      </c>
+      <c r="E15">
+        <v>5275942.7148092501</v>
+      </c>
+      <c r="F15">
+        <v>258696.07947220761</v>
+      </c>
+      <c r="G15">
+        <v>246816.4186021382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1991</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3250630</v>
+      </c>
+      <c r="C16" s="1">
+        <v>655309</v>
+      </c>
+      <c r="E16">
+        <v>2386467.8728585308</v>
+      </c>
+      <c r="F16">
+        <v>296345.25059833447</v>
+      </c>
+      <c r="G16">
+        <v>250635.02297736271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1992</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2362350.0000000005</v>
+      </c>
+      <c r="C17" s="1">
+        <v>481631</v>
+      </c>
+      <c r="E17">
+        <v>1804291.1236255709</v>
+      </c>
+      <c r="F17">
+        <v>164217.313668349</v>
+      </c>
+      <c r="G17">
+        <v>322425.22223343869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1993</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1665970</v>
+      </c>
+      <c r="C18" s="1">
+        <v>562969</v>
+      </c>
+      <c r="E18">
+        <v>1373729.1365656401</v>
+      </c>
+      <c r="F18">
+        <v>154544.02520103179</v>
+      </c>
+      <c r="G18">
+        <v>208828.76938076591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1994</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1701080</v>
+      </c>
+      <c r="C19" s="1">
+        <v>469184</v>
+      </c>
+      <c r="E19">
+        <v>1450207.643036817</v>
+      </c>
+      <c r="F19">
+        <v>196516.10776158911</v>
+      </c>
+      <c r="G19">
+        <v>163977.82248294269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1995</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6739470</v>
+      </c>
+      <c r="C20" s="1">
+        <v>622067</v>
+      </c>
+      <c r="E20">
+        <v>4787955.1897670384</v>
+      </c>
+      <c r="F20">
+        <v>167751.57461626941</v>
+      </c>
+      <c r="G20">
+        <v>248222.33880126741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1996</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3154900</v>
+      </c>
+      <c r="C21" s="1">
+        <v>523814</v>
+      </c>
+      <c r="E21">
+        <v>2181579.45000424</v>
+      </c>
+      <c r="F21">
+        <v>177778.21586733661</v>
+      </c>
+      <c r="G21">
+        <v>257254.58830094241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1454720</v>
+      </c>
+      <c r="C22" s="1">
+        <v>389169</v>
+      </c>
+      <c r="E22">
+        <v>956859.00490201556</v>
+      </c>
+      <c r="F22">
+        <v>143866.62711009369</v>
+      </c>
+      <c r="G22">
+        <v>236277.224437225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1998</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1402139.9999999998</v>
+      </c>
+      <c r="C23" s="1">
+        <v>495928</v>
+      </c>
+      <c r="E23">
+        <v>901701.17314539221</v>
+      </c>
+      <c r="F23">
+        <v>133806.4102953939</v>
+      </c>
+      <c r="G23">
+        <v>366595.53759893682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1999</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1757780</v>
+      </c>
+      <c r="C24" s="1">
+        <v>622681</v>
+      </c>
+      <c r="E24">
+        <v>1106013.227636382</v>
+      </c>
+      <c r="F24">
+        <v>221764.37330805129</v>
+      </c>
+      <c r="G24">
+        <v>230033.2832164077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6625070</v>
+      </c>
+      <c r="C25" s="1">
+        <v>664685</v>
+      </c>
+      <c r="E25">
+        <v>3928870.5727781882</v>
+      </c>
+      <c r="F25">
+        <v>184555.36053162179</v>
+      </c>
+      <c r="G25">
+        <v>759937.78236925846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B26" s="2">
+        <v>7114160</v>
+      </c>
+      <c r="C26" s="1">
+        <v>336124</v>
+      </c>
+      <c r="E26">
+        <v>4163492.533991205</v>
+      </c>
+      <c r="F26">
+        <v>169400.04486064089</v>
+      </c>
+      <c r="G26">
+        <v>155070.57395755281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1003840</v>
+      </c>
+      <c r="C27" s="1">
+        <v>355472</v>
+      </c>
+      <c r="E27">
+        <v>659186.67432622937</v>
+      </c>
+      <c r="F27">
+        <v>102631.6644954019</v>
+      </c>
+      <c r="G27">
+        <v>368480.05641864351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B28" s="2">
+        <v>776964</v>
+      </c>
+      <c r="C28" s="1">
+        <v>361230</v>
+      </c>
+      <c r="E28">
+        <v>535144.04798194172</v>
+      </c>
+      <c r="F28">
+        <v>121897.8717547905</v>
+      </c>
+      <c r="G28">
+        <v>229052.33466123321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B29" s="2">
+        <v>731720</v>
+      </c>
+      <c r="C29" s="1">
+        <v>418358</v>
+      </c>
+      <c r="E29">
+        <v>502367.32777109387</v>
+      </c>
+      <c r="F29">
+        <v>96539.578938931882</v>
+      </c>
+      <c r="G29">
+        <v>402216.15712774207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1879320.0000000002</v>
+      </c>
+      <c r="C30" s="1">
+        <v>711393</v>
+      </c>
+      <c r="E30">
+        <v>1224539.229190557</v>
+      </c>
+      <c r="F30">
+        <v>242349.53349413991</v>
+      </c>
+      <c r="G30">
+        <v>321829.10191529681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B31" s="2">
+        <v>6025550</v>
+      </c>
+      <c r="C31" s="1">
+        <v>886692</v>
+      </c>
+      <c r="E31">
+        <v>3645325.8527586949</v>
+      </c>
+      <c r="F31">
+        <v>260293.953205397</v>
+      </c>
+      <c r="G31">
+        <v>417074.33357452281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5689230.0000000009</v>
+      </c>
+      <c r="C32" s="1">
+        <v>715983</v>
+      </c>
+      <c r="E32">
+        <v>3394818.6191859851</v>
+      </c>
+      <c r="F32">
+        <v>317043.25595350342</v>
+      </c>
+      <c r="G32">
+        <v>148843.2819707923</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B33" s="2">
+        <v>7024870</v>
+      </c>
+      <c r="C33" s="1">
+        <v>895520</v>
+      </c>
+      <c r="E33">
+        <v>4392728.4314167378</v>
+      </c>
+      <c r="F33">
+        <v>209491.06782232021</v>
+      </c>
+      <c r="G33">
+        <v>321668.05419423111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3108640</v>
+      </c>
+      <c r="C34" s="1">
+        <v>443243</v>
+      </c>
+      <c r="E34">
+        <v>2228270.6240971731</v>
+      </c>
+      <c r="F34">
+        <v>217819.99888584111</v>
+      </c>
+      <c r="G34">
+        <v>129640.7590030383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1215790</v>
+      </c>
+      <c r="C35" s="1">
+        <v>626477</v>
+      </c>
+      <c r="E35">
+        <v>1123738.9826920601</v>
+      </c>
+      <c r="F35">
+        <v>166822.83664082931</v>
+      </c>
+      <c r="G35">
+        <v>151832.38507568251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5272960</v>
+      </c>
+      <c r="C36" s="1">
+        <v>918465</v>
+      </c>
+      <c r="E36">
+        <v>3439547.8771141432</v>
+      </c>
+      <c r="F36">
+        <v>212578.63358482241</v>
+      </c>
+      <c r="G36">
+        <v>271051.03702229023</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B37" s="2">
+        <v>856500</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1406210</v>
+      </c>
+      <c r="E37">
+        <v>1155691.892635223</v>
+      </c>
+      <c r="F37">
+        <v>215454.1553023842</v>
+      </c>
+      <c r="G37">
+        <v>367350.05256511172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B38" s="2">
+        <v>37178700</v>
+      </c>
+      <c r="C38" s="1">
+        <v>926001</v>
+      </c>
+      <c r="E38">
+        <v>21002467.694011781</v>
+      </c>
+      <c r="F38">
+        <v>158084.50940520331</v>
+      </c>
+      <c r="G38">
+        <v>421373.02229437279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2039079.9999999998</v>
+      </c>
+      <c r="C39" s="1">
+        <v>312412</v>
+      </c>
+      <c r="E39">
+        <v>2147758.5868369159</v>
+      </c>
+      <c r="F39">
+        <v>63801.287647354751</v>
+      </c>
+      <c r="G39">
+        <v>342594.03254746122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B40" s="2">
+        <v>37888.1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>168673</v>
+      </c>
+      <c r="E40">
+        <v>233799.1493124612</v>
+      </c>
+      <c r="F40">
+        <v>35213.390437946771</v>
+      </c>
+      <c r="G40">
+        <v>105909.50124389189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B41" s="2">
+        <v>5952.51</v>
+      </c>
+      <c r="C41" s="1">
+        <v>368823</v>
+      </c>
+      <c r="E41">
+        <v>83613.398497473696</v>
+      </c>
+      <c r="F41">
+        <v>36926.889173103191</v>
+      </c>
+      <c r="G41">
+        <v>681789.57876888663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2124160</v>
+      </c>
+      <c r="C42" s="1">
+        <v>630775</v>
+      </c>
+      <c r="E42">
+        <v>2180567.7110842438</v>
+      </c>
+      <c r="F42">
+        <v>57957.707514764334</v>
+      </c>
+      <c r="G42">
+        <v>207140.78218450531</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B43" s="2">
+        <v>5414880</v>
+      </c>
+      <c r="C43" s="1">
+        <v>677050</v>
+      </c>
+      <c r="E43">
+        <v>3900386.6928161848</v>
+      </c>
+      <c r="F43">
+        <v>128595.2294238563</v>
+      </c>
+      <c r="G43">
+        <v>187577.24152215821</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="10.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -10857,9 +13272,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1977</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>11709500</v>
@@ -10868,18 +13283,18 @@
         <v>1669380</v>
       </c>
       <c r="E2">
-        <v>8438131.5563715268</v>
+        <v>8264634.4175892826</v>
       </c>
       <c r="F2">
-        <v>430618.87427398091</v>
+        <v>455700.08535297768</v>
       </c>
       <c r="G2">
-        <v>165433.15432219749</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>153934.06856450791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1978</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>14321100</v>
@@ -10888,18 +13303,18 @@
         <v>432925</v>
       </c>
       <c r="E3">
-        <v>8680043.2581678946</v>
+        <v>8607245.4551151115</v>
       </c>
       <c r="F3">
-        <v>462550.91546267131</v>
+        <v>428845.60313019197</v>
       </c>
       <c r="G3">
-        <v>170442.07192080529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>158511.4981653695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1979</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>25424800.000000004</v>
@@ -10908,18 +13323,18 @@
         <v>740541</v>
       </c>
       <c r="E4">
-        <v>15707500.07143826</v>
+        <v>15486210.608311679</v>
       </c>
       <c r="F4">
-        <v>231135.98595502751</v>
+        <v>257732.21181304491</v>
       </c>
       <c r="G4">
-        <v>302926.80358724517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>285517.97527267551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1980</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>12958600</v>
@@ -10928,18 +13343,18 @@
         <v>805551</v>
       </c>
       <c r="E5">
-        <v>8361037.9768659454</v>
+        <v>8301318.9792368524</v>
       </c>
       <c r="F5">
-        <v>312290.89960005367</v>
+        <v>310534.98613923963</v>
       </c>
       <c r="G5">
-        <v>224831.56660586581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>207465.49440485481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1981</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>7231480.0000000009</v>
@@ -10948,18 +13363,18 @@
         <v>821497</v>
       </c>
       <c r="E6">
-        <v>4831810.1964993598</v>
+        <v>4751936.4392310278</v>
       </c>
       <c r="F6">
-        <v>567277.36867854244</v>
+        <v>616449.67363862274</v>
       </c>
       <c r="G6">
-        <v>246044.01849771431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>236969.1872002435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1982</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>7229040</v>
@@ -10968,18 +13383,18 @@
         <v>893635</v>
       </c>
       <c r="E7">
-        <v>4614514.7153575653</v>
+        <v>4563179.8884436637</v>
       </c>
       <c r="F7">
-        <v>160721.9794398071</v>
+        <v>179270.1363201199</v>
       </c>
       <c r="G7">
-        <v>125683.2892107152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>112183.8593146752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1983</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>4967740</v>
@@ -10988,18 +13403,18 @@
         <v>1042800</v>
       </c>
       <c r="E8">
-        <v>2615541.8883630452</v>
+        <v>2610408.996134216</v>
       </c>
       <c r="F8">
-        <v>290538.01338652271</v>
+        <v>311058.92827192391</v>
       </c>
       <c r="G8">
-        <v>150078.8721984663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>136788.71159931831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1984</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>5933450</v>
@@ -11008,18 +13423,18 @@
         <v>1133280</v>
       </c>
       <c r="E9">
-        <v>3402966.1692556371</v>
+        <v>3164322.5674284939</v>
       </c>
       <c r="F9">
-        <v>356802.60914317839</v>
+        <v>352489.53874974308</v>
       </c>
       <c r="G9">
-        <v>394321.17163552792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>377092.09298634459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1985</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>14760199.999999998</v>
@@ -11028,18 +13443,18 @@
         <v>1119070</v>
       </c>
       <c r="E10">
-        <v>8739126.8545102216</v>
+        <v>8575478.2323429193</v>
       </c>
       <c r="F10">
-        <v>569251.52716959163</v>
+        <v>544160.66482213186</v>
       </c>
       <c r="G10">
-        <v>376050.58132523298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>348013.08891793469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1986</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>4315400.0000000009</v>
@@ -11048,18 +13463,18 @@
         <v>794109</v>
       </c>
       <c r="E11">
-        <v>2940434.036091947</v>
+        <v>2814088.9655121239</v>
       </c>
       <c r="F11">
-        <v>296392.50010125258</v>
+        <v>306618.62038717978</v>
       </c>
       <c r="G11">
-        <v>221532.60576695789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>216855.7508696845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1987</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>1789469.9999999998</v>
@@ -11068,18 +13483,18 @@
         <v>836643</v>
       </c>
       <c r="E12">
-        <v>1468675.643829423</v>
+        <v>1394943.0364140819</v>
       </c>
       <c r="F12">
-        <v>181471.20750854001</v>
+        <v>182187.27003779711</v>
       </c>
       <c r="G12">
-        <v>330152.22975909378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>320001.83150626661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1988</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>4998250</v>
@@ -11088,18 +13503,18 @@
         <v>786067</v>
       </c>
       <c r="E13">
-        <v>2840022.8891823851</v>
+        <v>2814344.0509806559</v>
       </c>
       <c r="F13">
-        <v>308256.20463479048</v>
+        <v>317513.15237825131</v>
       </c>
       <c r="G13">
-        <v>278716.31165466522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>258279.4952063752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1989</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>11468500</v>
@@ -11108,18 +13523,18 @@
         <v>823390</v>
       </c>
       <c r="E14">
-        <v>6930016.5696439659</v>
+        <v>6667780.7967156004</v>
       </c>
       <c r="F14">
-        <v>229937.68541019119</v>
+        <v>234806.2651325461</v>
       </c>
       <c r="G14">
-        <v>352317.4448283572</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>346354.11115940922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1990</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>8451930</v>
@@ -11128,18 +13543,18 @@
         <v>1135740</v>
       </c>
       <c r="E15">
-        <v>5325032.1257511172</v>
+        <v>5275942.7148092501</v>
       </c>
       <c r="F15">
-        <v>246888.8793943162</v>
+        <v>258696.07947220761</v>
       </c>
       <c r="G15">
-        <v>254580.64987804671</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>246816.4186021382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1991</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>3250630</v>
@@ -11148,18 +13563,18 @@
         <v>655309</v>
       </c>
       <c r="E16">
-        <v>2387952.6451979061</v>
+        <v>2386467.8728585308</v>
       </c>
       <c r="F16">
-        <v>291336.89848128031</v>
+        <v>296345.25059833447</v>
       </c>
       <c r="G16">
-        <v>267992.62793643167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>250635.02297736271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1992</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>2362350.0000000005</v>
@@ -11168,18 +13583,18 @@
         <v>481631</v>
       </c>
       <c r="E17">
-        <v>1834119.4700396881</v>
+        <v>1804291.1236255709</v>
       </c>
       <c r="F17">
-        <v>166837.7241966881</v>
+        <v>164217.313668349</v>
       </c>
       <c r="G17">
-        <v>325783.97204715858</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>322425.22223343869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1993</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>1665970</v>
@@ -11188,18 +13603,18 @@
         <v>562969</v>
       </c>
       <c r="E18">
-        <v>1386036.6473213569</v>
+        <v>1373729.1365656401</v>
       </c>
       <c r="F18">
-        <v>150103.65232874121</v>
+        <v>154544.02520103179</v>
       </c>
       <c r="G18">
-        <v>214231.91926879881</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>208828.76938076591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>1994</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>1701080</v>
@@ -11208,18 +13623,18 @@
         <v>469184</v>
       </c>
       <c r="E19">
-        <v>1471501.20472299</v>
+        <v>1450207.643036817</v>
       </c>
       <c r="F19">
-        <v>192455.2862583063</v>
+        <v>196516.10776158911</v>
       </c>
       <c r="G19">
-        <v>172656.93152147139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>163977.82248294269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>1995</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>6739470</v>
@@ -11228,18 +13643,18 @@
         <v>622067</v>
       </c>
       <c r="E20">
-        <v>4835345.6553675989</v>
+        <v>4787955.1897670384</v>
       </c>
       <c r="F20">
-        <v>157828.60831688749</v>
+        <v>167751.57461626941</v>
       </c>
       <c r="G20">
-        <v>252723.54265292661</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>248222.33880126741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1996</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>3154900</v>
@@ -11248,18 +13663,18 @@
         <v>523814</v>
       </c>
       <c r="E21">
-        <v>2226842.485494094</v>
+        <v>2181579.45000424</v>
       </c>
       <c r="F21">
-        <v>163922.9652251486</v>
+        <v>177778.21586733661</v>
       </c>
       <c r="G21">
-        <v>259717.32143336249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>257254.58830094241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>1997</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>1454720</v>
@@ -11268,434 +13683,140 @@
         <v>389169</v>
       </c>
       <c r="E22">
-        <v>966061.42042407126</v>
+        <v>956859.00490201556</v>
       </c>
       <c r="F22">
-        <v>127875.3343845476</v>
+        <v>143866.62711009369</v>
       </c>
       <c r="G22">
-        <v>244744.13606980391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>1998</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1402139.9999999998</v>
-      </c>
-      <c r="C23" s="1">
-        <v>495928</v>
-      </c>
-      <c r="E23">
-        <v>913370.39025418926</v>
-      </c>
-      <c r="F23">
-        <v>125702.5175607234</v>
-      </c>
-      <c r="G23">
-        <v>367110.73568396142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1">
-        <v>1999</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1757780</v>
-      </c>
-      <c r="C24" s="1">
-        <v>622681</v>
-      </c>
-      <c r="E24">
-        <v>1131061.7132145909</v>
-      </c>
-      <c r="F24">
-        <v>209349.33571053151</v>
-      </c>
-      <c r="G24">
-        <v>238859.14658985281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B25" s="2">
-        <v>6625070</v>
-      </c>
-      <c r="C25" s="1">
-        <v>664685</v>
-      </c>
-      <c r="E25">
-        <v>4055338.016698027</v>
-      </c>
-      <c r="F25">
-        <v>181074.8848901251</v>
-      </c>
-      <c r="G25">
-        <v>756937.06577652995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B26" s="2">
-        <v>7114160</v>
-      </c>
-      <c r="C26" s="1">
-        <v>336124</v>
-      </c>
-      <c r="E26">
-        <v>4238232.9827992981</v>
-      </c>
-      <c r="F26">
-        <v>172825.0626664671</v>
-      </c>
-      <c r="G26">
-        <v>167057.95964272361</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1003840</v>
-      </c>
-      <c r="C27" s="1">
-        <v>355472</v>
-      </c>
-      <c r="E27">
-        <v>676529.42926114646</v>
-      </c>
-      <c r="F27">
-        <v>104469.22636868661</v>
-      </c>
-      <c r="G27">
-        <v>364347.58460952842</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B28" s="2">
-        <v>776964</v>
-      </c>
-      <c r="C28" s="1">
-        <v>361230</v>
-      </c>
-      <c r="E28">
-        <v>545590.4222898673</v>
-      </c>
-      <c r="F28">
-        <v>122473.96901418849</v>
-      </c>
-      <c r="G28">
-        <v>243100.5945442644</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B29" s="2">
-        <v>731720</v>
-      </c>
-      <c r="C29" s="1">
-        <v>418358</v>
-      </c>
-      <c r="E29">
-        <v>488875.69541488989</v>
-      </c>
-      <c r="F29">
-        <v>96942.146441951496</v>
-      </c>
-      <c r="G29">
-        <v>395413.22572203138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1879320.0000000002</v>
-      </c>
-      <c r="C30" s="1">
-        <v>711393</v>
-      </c>
-      <c r="E30">
-        <v>1284408.1171194611</v>
-      </c>
-      <c r="F30">
-        <v>237461.0612634538</v>
-      </c>
-      <c r="G30">
-        <v>340559.15869525378</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B31" s="2">
-        <v>6025550</v>
-      </c>
-      <c r="C31" s="1">
-        <v>886692</v>
-      </c>
-      <c r="E31">
-        <v>3722219.8254473931</v>
-      </c>
-      <c r="F31">
-        <v>252534.79726279949</v>
-      </c>
-      <c r="G31">
-        <v>424761.85445098398</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B32" s="2">
-        <v>5689230.0000000009</v>
-      </c>
-      <c r="C32" s="1">
-        <v>715983</v>
-      </c>
-      <c r="E32">
-        <v>3457737.8020241451</v>
-      </c>
-      <c r="F32">
-        <v>305853.19862125308</v>
-      </c>
-      <c r="G32">
-        <v>159228.3504329283</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B33" s="2">
-        <v>7024870</v>
-      </c>
-      <c r="C33" s="1">
-        <v>895520</v>
-      </c>
-      <c r="E33">
-        <v>4402497.4750237158</v>
-      </c>
-      <c r="F33">
-        <v>205639.91382546519</v>
-      </c>
-      <c r="G33">
-        <v>331663.16976930131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3108640</v>
-      </c>
-      <c r="C34" s="1">
-        <v>443243</v>
-      </c>
-      <c r="E34">
-        <v>2051395.385351911</v>
-      </c>
-      <c r="F34">
-        <v>214647.22897945551</v>
-      </c>
-      <c r="G34">
-        <v>139202.43330362529</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1215790</v>
-      </c>
-      <c r="C35" s="1">
-        <v>626477</v>
-      </c>
-      <c r="E35">
-        <v>1079937.0125701411</v>
-      </c>
-      <c r="F35">
-        <v>163247.30558121749</v>
-      </c>
-      <c r="G35">
-        <v>159460.6094708498</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B36" s="2">
-        <v>5272960</v>
-      </c>
-      <c r="C36" s="1">
-        <v>918465</v>
-      </c>
-      <c r="E36">
-        <v>3211341.8486809842</v>
-      </c>
-      <c r="F36">
-        <v>206389.06826187341</v>
-      </c>
-      <c r="G36">
-        <v>290936.78383178823</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B37" s="2">
-        <v>856500</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1406210</v>
-      </c>
-      <c r="E37">
-        <v>932109.60640895274</v>
-      </c>
-      <c r="F37">
-        <v>209512.15564739559</v>
-      </c>
-      <c r="G37">
-        <v>373836.09051349352</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B38" s="2">
-        <v>37178700</v>
-      </c>
-      <c r="C38" s="1">
-        <v>926001</v>
-      </c>
-      <c r="E38">
-        <v>22567265.473655201</v>
-      </c>
-      <c r="F38">
-        <v>157246.94742541411</v>
-      </c>
-      <c r="G38">
-        <v>447460.60898755217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2039079.9999999998</v>
-      </c>
-      <c r="C39" s="1">
-        <v>312412</v>
-      </c>
-      <c r="E39">
-        <v>1344233.162569582</v>
-      </c>
-      <c r="F39">
-        <v>61907.094443229696</v>
-      </c>
-      <c r="G39">
-        <v>348579.09712606168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B40" s="2">
-        <v>37888.1</v>
-      </c>
-      <c r="C40" s="1">
-        <v>168673</v>
-      </c>
-      <c r="E40">
-        <v>1263636.136067732</v>
-      </c>
-      <c r="F40">
-        <v>33223.486490669689</v>
-      </c>
-      <c r="G40">
-        <v>123755.7137625282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B41" s="2">
-        <v>5952.51</v>
-      </c>
-      <c r="C41" s="1">
-        <v>368823</v>
-      </c>
-      <c r="E41">
-        <v>1091686.440666748</v>
-      </c>
-      <c r="F41">
-        <v>34433.273035996273</v>
-      </c>
-      <c r="G41">
-        <v>712684.09586766141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B42" s="2">
-        <v>2124160</v>
-      </c>
-      <c r="C42" s="1">
-        <v>630775</v>
-      </c>
-      <c r="E42">
-        <v>3324594.6086815158</v>
-      </c>
-      <c r="F42">
-        <v>57572.416091640451</v>
-      </c>
-      <c r="G42">
-        <v>281700.0475218902</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B43" s="2">
-        <v>5414880</v>
-      </c>
-      <c r="C43" s="1">
-        <v>677050</v>
-      </c>
-      <c r="E43">
-        <v>2443882.5593901421</v>
-      </c>
-      <c r="F43">
-        <v>128156.286030064</v>
-      </c>
-      <c r="G43">
-        <v>205028.3708078028</v>
-      </c>
+        <v>236277.224437225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
